--- a/docs/部品リスト.xlsx
+++ b/docs/部品リスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/mause/lapis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="819" documentId="8_{6A0CA0E1-5EF6-4853-9272-C7ABA478B855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8F12865-9F00-4614-B5BE-90879FC25346}"/>
+  <xr:revisionPtr revIDLastSave="820" documentId="8_{6A0CA0E1-5EF6-4853-9272-C7ABA478B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75BB01E4-CC36-419F-8C87-FE198A74DE43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3540" windowWidth="28800" windowHeight="15435" xr2:uid="{E09302F3-D42A-4987-BF65-23048D678B2D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E09302F3-D42A-4987-BF65-23048D678B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://ja.aliexpress.com/item/33052605909.html?spm=a2g0o.cart.0.0.79553c001Huzwk&amp;mp=1</t>
-  </si>
-  <si>
     <t>3Dプリント部品各種</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -498,6 +495,10 @@
   </si>
   <si>
     <t>LTR-4206E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://ja.aliexpress.com/item/33052605909.html?spm=a2g0o.cart.0.0.79553c001Huzwk&amp;mp=1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1020,7 +1021,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1075,7 +1076,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>12</v>
@@ -1108,7 +1109,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>62</v>
@@ -1141,7 +1142,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>65</v>
@@ -1174,7 +1175,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>69</v>
@@ -1207,7 +1208,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>72</v>
@@ -1240,7 +1241,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1273,7 +1274,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>24</v>
@@ -1306,7 +1307,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>16</v>
@@ -1339,10 +1340,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1355,7 +1356,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>35</v>
@@ -1388,7 +1389,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>32</v>
@@ -1421,7 +1422,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>40</v>
@@ -1454,13 +1455,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8">
         <v>166</v>
@@ -1487,7 +1488,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>27</v>
@@ -1520,13 +1521,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8">
         <v>65</v>
@@ -1553,13 +1554,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="8">
         <v>19</v>
@@ -1581,12 +1582,12 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>43</v>
@@ -1619,13 +1620,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="8">
         <v>299</v>
@@ -1652,7 +1653,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>48</v>
@@ -1685,13 +1686,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="8">
         <v>45</v>
@@ -1718,13 +1719,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="8">
         <v>389</v>
@@ -1746,12 +1747,12 @@
         <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>56</v>
@@ -1784,7 +1785,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>75</v>
@@ -1817,7 +1818,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>55</v>
@@ -1850,7 +1851,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>83</v>
@@ -1883,7 +1884,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>84</v>
@@ -1911,16 +1912,16 @@
         <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8">
         <v>1436</v>
@@ -1939,10 +1940,10 @@
         <v>1436</v>
       </c>
       <c r="I29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
@@ -2129,19 +2130,17 @@
     <hyperlink ref="J16" r:id="rId3" xr:uid="{AAC4DE1B-6004-4B48-899E-EF7986ACAC0C}"/>
     <hyperlink ref="J18" r:id="rId4" xr:uid="{1115D33B-A92A-42A1-8F51-05A5D0A5B706}"/>
     <hyperlink ref="J23" r:id="rId5" xr:uid="{28CC0B9E-A75E-47BC-B38B-26D340BF6B97}"/>
+    <hyperlink ref="J28" r:id="rId6" xr:uid="{697F5462-F038-4E79-8B5D-3A6A442DC66B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2309,15 +2308,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D992A3D7-B6FF-453D-8BE1-0A643FE333DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1228313B-7167-4D1D-82B6-4209F3FA37AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a525e278-d6b3-4a74-a382-1bfa10b10144"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2341,17 +2351,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1228313B-7167-4D1D-82B6-4209F3FA37AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D992A3D7-B6FF-453D-8BE1-0A643FE333DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a525e278-d6b3-4a74-a382-1bfa10b10144"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>